--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H2">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0593641948662</v>
+        <v>4.126378</v>
       </c>
       <c r="N2">
-        <v>4.0593641948662</v>
+        <v>12.379134</v>
       </c>
       <c r="O2">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461222</v>
       </c>
       <c r="P2">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461223</v>
       </c>
       <c r="Q2">
-        <v>34.24321414846025</v>
+        <v>52.79903531251666</v>
       </c>
       <c r="R2">
-        <v>34.24321414846025</v>
+        <v>475.19131781265</v>
       </c>
       <c r="S2">
-        <v>0.06002932889047977</v>
+        <v>0.07499334013385298</v>
       </c>
       <c r="T2">
-        <v>0.06002932889047977</v>
+        <v>0.07499334013385299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H3">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.3137167773098</v>
+        <v>11.39252366666667</v>
       </c>
       <c r="N3">
-        <v>11.3137167773098</v>
+        <v>34.177571</v>
       </c>
       <c r="O3">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014015</v>
       </c>
       <c r="P3">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014014</v>
       </c>
       <c r="Q3">
-        <v>95.43810503881549</v>
+        <v>145.7729416391361</v>
       </c>
       <c r="R3">
-        <v>95.43810503881549</v>
+        <v>1311.956474752225</v>
       </c>
       <c r="S3">
-        <v>0.1673057140962574</v>
+        <v>0.20704923356932</v>
       </c>
       <c r="T3">
-        <v>0.1673057140962574</v>
+        <v>0.2070492335693199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H4">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4819893944356</v>
+        <v>12.79578833333333</v>
       </c>
       <c r="N4">
-        <v>12.4819893944356</v>
+        <v>38.387365</v>
       </c>
       <c r="O4">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524764</v>
       </c>
       <c r="P4">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524763</v>
       </c>
       <c r="Q4">
-        <v>105.2931974847249</v>
+        <v>163.7284029875972</v>
       </c>
       <c r="R4">
-        <v>105.2931974847249</v>
+        <v>1473.555626888375</v>
       </c>
       <c r="S4">
-        <v>0.1845819716086726</v>
+        <v>0.2325523514235619</v>
       </c>
       <c r="T4">
-        <v>0.1845819716086726</v>
+        <v>0.2325523514235618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H5">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0593641948662</v>
+        <v>4.126378</v>
       </c>
       <c r="N5">
-        <v>4.0593641948662</v>
+        <v>12.379134</v>
       </c>
       <c r="O5">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461222</v>
       </c>
       <c r="P5">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461223</v>
       </c>
       <c r="Q5">
-        <v>39.7915169171406</v>
+        <v>40.454580768688</v>
       </c>
       <c r="R5">
-        <v>39.7915169171406</v>
+        <v>364.091226918192</v>
       </c>
       <c r="S5">
-        <v>0.06975566153674066</v>
+        <v>0.05745984027173014</v>
       </c>
       <c r="T5">
-        <v>0.06975566153674066</v>
+        <v>0.05745984027173015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H6">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3137167773098</v>
+        <v>11.39252366666667</v>
       </c>
       <c r="N6">
-        <v>11.3137167773098</v>
+        <v>34.177571</v>
       </c>
       <c r="O6">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014015</v>
       </c>
       <c r="P6">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014014</v>
       </c>
       <c r="Q6">
-        <v>110.9015922023964</v>
+        <v>111.6911172055387</v>
       </c>
       <c r="R6">
-        <v>110.9015922023964</v>
+        <v>1005.220054849848</v>
       </c>
       <c r="S6">
-        <v>0.1944136471516026</v>
+        <v>0.158640965558311</v>
       </c>
       <c r="T6">
-        <v>0.1944136471516026</v>
+        <v>0.1586409655583109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H7">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4819893944356</v>
+        <v>12.79578833333333</v>
       </c>
       <c r="N7">
-        <v>12.4819893944356</v>
+        <v>38.387365</v>
       </c>
       <c r="O7">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524764</v>
       </c>
       <c r="P7">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524763</v>
       </c>
       <c r="Q7">
-        <v>122.353469239442</v>
+        <v>125.4485780580133</v>
       </c>
       <c r="R7">
-        <v>122.353469239442</v>
+        <v>1129.03720252212</v>
       </c>
       <c r="S7">
-        <v>0.2144891134933348</v>
+        <v>0.1781814350949432</v>
       </c>
       <c r="T7">
-        <v>0.2144891134933348</v>
+        <v>0.1781814350949431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H8">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0593641948662</v>
+        <v>4.126378</v>
       </c>
       <c r="N8">
-        <v>4.0593641948662</v>
+        <v>12.379134</v>
       </c>
       <c r="O8">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461222</v>
       </c>
       <c r="P8">
-        <v>0.145731607977984</v>
+        <v>0.1457327627461223</v>
       </c>
       <c r="Q8">
-        <v>9.096610770556072</v>
+        <v>9.34948537673</v>
       </c>
       <c r="R8">
-        <v>9.096610770556072</v>
+        <v>84.14536839057001</v>
       </c>
       <c r="S8">
-        <v>0.01594661755076355</v>
+        <v>0.01327958234053912</v>
       </c>
       <c r="T8">
-        <v>0.01594661755076355</v>
+        <v>0.01327958234053912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H9">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.3137167773098</v>
+        <v>11.39252366666667</v>
       </c>
       <c r="N9">
-        <v>11.3137167773098</v>
+        <v>34.177571</v>
       </c>
       <c r="O9">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014015</v>
       </c>
       <c r="P9">
-        <v>0.4061636401705506</v>
+        <v>0.4023538194014014</v>
       </c>
       <c r="Q9">
-        <v>25.35285649453522</v>
+        <v>25.81300923607834</v>
       </c>
       <c r="R9">
-        <v>25.35285649453522</v>
+        <v>232.317083124705</v>
       </c>
       <c r="S9">
-        <v>0.04444427892269054</v>
+        <v>0.03666362027377052</v>
       </c>
       <c r="T9">
-        <v>0.04444427892269054</v>
+        <v>0.03666362027377051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H10">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4819893944356</v>
+        <v>12.79578833333333</v>
       </c>
       <c r="N10">
-        <v>12.4819893944356</v>
+        <v>38.387365</v>
       </c>
       <c r="O10">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524764</v>
       </c>
       <c r="P10">
-        <v>0.4481047518514654</v>
+        <v>0.4519134178524763</v>
       </c>
       <c r="Q10">
-        <v>27.97083329132828</v>
+        <v>28.99250526884166</v>
       </c>
       <c r="R10">
-        <v>27.97083329132828</v>
+        <v>260.932547419575</v>
       </c>
       <c r="S10">
-        <v>0.04903366674945803</v>
+        <v>0.0411796313339713</v>
       </c>
       <c r="T10">
-        <v>0.04903366674945803</v>
+        <v>0.04117963133397129</v>
       </c>
     </row>
   </sheetData>
